--- a/WebAuto/data/intelligent_judgement.xlsx
+++ b/WebAuto/data/intelligent_judgement.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="5625" windowWidth="18600" xWindow="9810" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="研判分析_短文本" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="研判分析_长文本" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="研判分析_长文本" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="研判分析_短文本" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>141121133957110.doc.doc</t>
+  </si>
+  <si>
+    <t>F:\AutoTest\WebAuto\project\intelligent_judgement\data\长文本研判分析\141121133957110.doc.doc</t>
+  </si>
   <si>
     <t>测试文本</t>
   </si>
@@ -88,122 +100,6 @@
   </si>
   <si>
     <t>6个月</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>filepath</t>
-  </si>
-  <si>
-    <t>141121133957110.doc.doc</t>
-  </si>
-  <si>
-    <t>F:\AutoTest\WebAuto\project\intelligent_judgement\data\长文本研判分析\141121133957110.doc.doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">被告人张爱良犯非法捕捞水产品罪，于2014年3月11日向本院提起公诉。本院依法适用简易程序，实行独任审判，公开开庭审理了本案。上海市闵行区人民检察院指派代理检察员邵勇出庭支持公诉，被告人张爱良到庭参加诉讼。本案现已审理终结。
-　　公诉机关指控：2013年4月25日12时许，被告人张爱良在禁渔期至本市闵行区马桥镇彭渡村十六组向阳河桥附近河道，使用电鱼方式进行捕鱼，非法捕捞各种鱼类2.65公斤，价值人民币13元，被正在执法的闵行区渔政管理检查站工作人员当场抓获，并缴获用于非法捕捞的12伏电瓶、逆变器、电网兜等工具。
-　　被告人张爱良到案后如实供述上述事实。
-　　</t>
-  </si>
-  <si>
-    <t>非法捕捞、采捕</t>
-  </si>
-  <si>
-    <t>非法捕捞水产品罪文书片段</t>
-  </si>
-  <si>
-    <t>非法捕捞水产品罪</t>
-  </si>
-  <si>
-    <t>0个月</t>
-  </si>
-  <si>
-    <t>青岛坤格汇鑫进出口有限公司等走私废物罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t>F:\AutoTest\WebAuto\project\intelligent_judgement\data\长文本研判分析\青岛坤格汇鑫进出口有限公司等走私废物罪一审刑事判决书.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">被告人原龙系在莱州市沙河镇路旺原家村从事废塑料加工业务的个体户，被告人丁煦熙系被告单位青岛坤格汇鑫进出口有限公司（以下简称坤格汇鑫公司）的法定代表人。被告人原龙为谋取非法利益，在明知不具备国家规定的进口、加工废塑料资质的情况下，委托被告人丁煦熙为其进口废塑料。被告人丁煦熙明知被告人原龙不具备国家规定的进口、加工废塑料资质，仍决定以坤格汇鑫公司的名义为被告人原龙联系国外货源、签订合同、借用《固体废物进口许可证》、办理货物进口的手续、代缴税费、物流运输等，并以每吨约20元的价格赚取代理费用。被告人原龙作为国内实际收货人，负责确认合同，支付货款、运费、代理费及进口过程中产生的其他各种费用，交纳税金等。自2013年10月至2014年12月，被告人原龙、被告单位坤格汇鑫公司非法利用被告单位烟台华森工贸有限公司（以下简称华森公司）、诸城金辉塑料有限公司（以下简称金辉公司）、烟台畅达工贸有限公司（以下简称畅达公司）、烟台市琴宝资源再生有限公司（以下简称琴宝公司）及烟台德亨塑料制品有限公司（以下简称德亨公司）的《固体废物进口许可证》，走私进口废塑料8票，共计951.5吨。被告人原龙将进口的废塑料加工成塑料颗粒后在国内销售。
-被告人崔永卫在担任畅达公司法定代表人期间，明知实际进口人不具备国家规定的进口废塑料资质，仍于2013年下半年将本公司的《固体废物进口许可证》出借给被告人丁煦熙，协助走私进口废塑料2票，共计216.24吨。被告单位畅达公司将该2票货物的增值税抵扣税款人民币166856.58元。
-被告人张宇在担任金辉公司法定代表人期间，明知实际进口人不具备国家规定的进口废塑料资质，仍于2013年下半年将本公司的《固体废物进口许可证》出借给被告人丁煦熙，协助走私进口废塑料2票，共计214.77吨。
-被告人任青磊在担任华森公司总经理期间，明知实际进口人不具备国家规定的进口废塑料资质，仍于2013年下半年将本公司的《固体废物进口许可证》出借给被告人丁煦熙，协助走私进口废塑料1票109.33吨。被告单位华森公司将该票货物的增值税抵扣税款人民币90166.88元。
-被告人张君作为琴宝公司实际负责人，明知实际进口人不具备国家规定的进口废塑料资质，仍于2014年11月份将本公司的《固体废物进口许可证》出借给被告人丁煦熙，协助走私进口废塑料1票77.48吨。
-被告人原龙、崔永卫、张君分别于2015年7月9日、7月13日、7月9日被烟台海关缉私分局抓获归案；被告人丁煦熙、张宇、任青磊分别于2015年7月9日、9月25日、7月15日主动到烟台海关缉私分局投案。
-案发后，烟台海关缉私分局扣押被告单位华森公司人民币9万元；扣押被告单位畅达公司人民币18万元。在案件审理期间，被告单位坤格汇鑫公司主动交纳罚金人民币15万元；被告单位畅达公司主动交纳罚金人民币6万元；被告单位金辉公司主动交纳罚金人民币4万元；被告单位华森公司主动交纳罚金人民币3万元；被告单位琴宝公司主动交纳罚金人民币3万元；被告人丁煦熙主动交纳罚金人民币8万元；被告人崔永卫主动交纳罚金人民币4万元；被告人张宇主动交纳罚金人民币3万元；被告人任青磊主动交纳罚金人民币2万元；被告人张君主动交纳罚金人民币2万元。
-另查明，经山东省青岛市市南区司法局、山东省烟台市芝罘区司法局、山东省诸城市司法局、山东省莱州市司法局调查评估后认为，被告人丁煦熙、崔永卫、张宇、任青磊、张君符合社区矫正条件。
-具体犯罪事实如下：
-（一）被告人原龙、被告单位坤格汇鑫公司于2013年10月25日，利用被告单位华森公司的《固体废物进口许可证》，进口废塑料1票，重109.33吨，报关单号425820131587003955，提单号HDMUHBQI1105456。被告单位华森公司将该票货物的增值税抵扣税款人民币90166.88元。
-上述事实，有经庭审质证、认证，本院予以确认的下列证据予以证实：
-1、书证
-（1）报关单及附随单据证实，2013年10月25日，被告单位坤格汇鑫公司以青岛郎维卓越国际贸易有限公司（华森公司的代理公司）为经营单位，利用华森公司固体废物进口许可证进口废PE塑料1票，重109330千克，报关单号425820131587003955，提单号HDMUHBQI1105456。该票货物由青岛彤欣国际货运代理有限公司代理报关。
-（2）从被告人原龙邮箱提取的邮件信息二份，该信息为2013年11月5日丁煦熙发给原龙，邮件名称为“5456账单”、“至11.5账单明细”证实，被告人丁煦熙通过邮件形式告知原龙该票货物的客户、提单号、到港日期、重量、关税、代理费、人工费、超期费、拖车费、打款额的明细，并告知原龙已打款人民币6万元不足，欠人民币89782.1元。经被告人原龙予以确认。
-（3）被告人丁煦熙银行卡明细证实，2013年11月1日，被告人原龙通过农村信用社账号给被告人丁煦熙打款人民币6万元。
-（4）证人张某银行卡明细证实，2013年11月1日，被告人丁煦熙通过银行卡转给张某人民币122800元，同日张某将人民币122538.31元转给青岛彤欣国际货运代理有限公司。
-（5）青岛彤欣国际货运代理有限公司出具的该公司代理坤格汇鑫公司支付税款资金明细证实，提单号HDMUHBQI1105456该票货物，该公司于2013年11月1日收到丁煦熙支付的人民币122800元，该公司将人民币122538.31元用于支付该票货物税款。
-（6）青岛彤欣国际货运代理有限公司营业执照证实，该公司成立日期、住所、法定代表人、经营范围。
-（7）青岛彤欣国际货运代理有限公司出具的情况说明证实，该公司与坤格汇鑫公司有业务合作关系，坤格汇鑫公司不具有报关资质，丁煦熙委托该公司办理报关业务。该公司没有收取丁煦熙任何代理费用，或者收取很少。另证实该公司为坤格汇鑫公司支付税款的流程。
-（8）山东省莱州市国家税务局出具的海关缴款书比对情况记录证实，华森公司将该票进口货物的增值税款抵扣税款人民币90166.88元。
-2、扣押决定书、扣押笔录、扣押清单证实，2015年7月15日，烟台海关缉私分局对被告单位华森公司人民币9万元予以扣押。
-3、证人证言
-（1）证人蒋某证实，其是青岛圣斯美贸易有限公司的法定代表人，公司主要经营进出口贸易代理业务。2013年下半年，丁煦熙让其帮忙联系进口废塑料许可证用于报关业务，其征得华森公司的负责人任青磊的同意后，将华森公司的许可证借给丁煦熙使用，其公司还将一些盖有华森公司公章的空白A4纸给了丁煦熙，由丁煦熙自行制作报关的合同、发票、箱单等单证。
-4、被告人供述和辩解
-（1）被告人原龙供述和辩解，其是从事废塑料加工业务的个体户，其没有直接在国外进口过废塑料，只是从青岛坤格汇鑫公司的丁煦熙处购买过进口的废塑料，这些废塑料进口手续都是丁煦熙操作的。丁煦熙通过邮箱给其发过一些对账单，这些资料具体的明细是什么意思其不清楚，其就是按照丁煦熙计算好的费用明细来支付给丁煦熙费用，这些费用明细其理解就是其购买每个货柜废塑料的总金额。
-（2）被告人丁煦熙供述和辩解，其受被告人原龙委托，于2013年10月25日，以坤格汇鑫公司的名义非法使用华森公司的许可证，委托青岛彤欣国际货运代理有限公司向海关申报进口废塑料109.33吨。货物进口后其通过公司的车队拉运至被告人原龙在莱州路旺的加工点，被告人原龙对该货物进行加工和销售。
-（3）被告人任青磊供述和辩解，华森公司注册成立于2010年1月21日，公司法人代表是其母亲，其母亲只是名义上的法人代表，其是华森公司的总经理，实际负责人。其公司自2010年开始办理《固体废物进口许可证》，其清楚国家对废塑料实行许可证管理，只有通过环评资质，具有废塑料加工能力的企业才能申领许可证，使用许可证进口的废塑料在进口后必须由许可证备案的利用单位加工使用，不得将许可证转让、租借、出售给他人使用。其公司进口废塑料的许可证和其它报关需要的手续都存放于蒋某公司。2013年下半年，蒋某说有个朋友想用其公司的许可证进口废塑料，其同意了。后来其知道使用其公司手续进口废塑料的使用人是丁老板（丁煦熙），丁老板具体办理进口废塑料业务时签订的合同、发票等单据都是蒋某和丁老板使用其公司的公章对外签订的，其他环节其公司没有参与。办理完通关手续后丁老板通过蒋某将通关时海关出具的增值税、关税单据通过快件邮寄给了其公司，其公司没有收取其他好处费，丁老板将其公司的许可证额度使用了有利于其公司下年额度的办理，另外因为他们开具了增值税发票，其公司享受了约9万元的税收优惠。
-（二）被告人原龙、被告单位坤格汇鑫公司于2013年11月22日，利用被告单位金辉公司的《固体废物进口许可证》，进口废塑料2票，共计重214.77吨。报关单号分别为425820131587021287、425820131587021288，提单号分别为HAMTAO130000058、HAMTAO130000056。
-上述事实，有经庭审质证、认证，本院予以确认的下列证据予以证实：
-1、书证
-（1）报关单及附随单据证实，2013年11月22日，被告单位坤格汇鑫公司两次以诸城金辉塑料有限公司为经营单位，利用金辉公司固体废物进口许可证，进口废PE塑料分别为108300千克、106470千克，报关单号分别为425820131587021288、425820131587021287，提单号分别为HAMTAO130000056、HAMTAO130000058。该二票货物由青岛彤欣国际货运代理有限公司代理报关。
-（2）从被告人原龙邮箱提取的邮件信息，该信息为2013年12月17日、18日丁煦熙发给原龙，邮件名称为“00560058账单”、“00560058付汇明细”证实，被告人丁煦熙通过邮件形式告知原龙该两票货物的客户、提单号、到港日期、重量、关税、代理费、人工费、超期费、拖车费、打款额的明细及货物付汇情况，并告知原龙欠人民币11306.42元。经被告人原龙予以确认。
-（3）被告人丁煦熙银行卡明细证实，2013年11月29日，被告人原龙通过农村信用社账号给丁煦熙打款人民币30万元。
-（4）被告人丁煦熙、证人张某银行卡明细证实，2013年11月29日，被告人丁煦熙将人民币134956.41元打给张某，当日张某将人民币119043.9元打给青岛彤欣国际货运代理有限公司，用于交纳“提单尾号0058”票货物的税款。
-（5）被告人丁煦熙、证人张某银行卡明细证实，2013年12月13日，被告人丁煦熙二次分别支付给张某人民币10000元、111000元，共支付给张某人民币121000元；2013年12月16日，张某将人民币121090.06元打给青岛彤欣国际货运代理有限公司，用于交纳“提单尾号0056”票货物的税款。
-（6）青岛彤欣国际货运代理有限公司出具的该公司代理坤格汇鑫公司支付税款资金明细证实，提单号为HAMTAO130000058的货物，该公司于2013年11月29日收到丁煦熙支付的人民币119043.9元，用于支付该票货物税款；提单号为HAMTAO130000056的货物，该公司于2013年12月16日收到丁煦熙支付的人民币121000元，用于支付该票货物税款。
-（7）中国农业银行个人结算业务申请书证实，2013年10月31日，被告人原龙通过农业银行打款人民币71万元给丁煦熙，原龙在该申请书上“附加信息及用途”上标注的是“货款尾付款”。
-（8）被告人丁煦熙银行卡明细证实，2013年9月6日，被告人原龙打款人民币28万元给丁煦熙，同日丁煦熙打款人民币277400元给张某尾号3115的农业银行卡。2013年10月31日，被告人原龙打款人民币71万元给丁煦熙，同日丁煦熙打款人民币694500元给张某尾号3115的农业银行卡。
-（9）被告人原龙手写塑料大件订货明细表复印件，该明细表内容为“已付关税”对应的数额为人民币30万元，对应时间是11月29日，对应的“订金”是人民币28万元，“尾付”是人民币71万元，证实被告人原龙记录的该二票货物支付货款及关税情况。被告人原龙对该复印件予以确认。
-2、被告人供述和辩解
-（1）被告人原龙供述和辩解，其是从事废塑料加工业务的个体户，其没有直接在国外进口过废塑料，只是从青岛坤格汇鑫公司的丁煦熙处购买过进口的废塑料，这些废塑料进口手续都是丁煦熙操作的。
-（2）被告人丁煦熙供述和辩解，其受被告人原龙委托，于2013年11月22日，以坤格汇鑫公司的名义非法使用金辉公司的许可证，委托青岛彤欣国际货运代理有限公司向海关申报进口废塑料2票，共计214.77吨。货物进口后其通过公司的车队拉运到被告人原龙在莱州路旺的加工点，被告人原龙对上述货物进行加工和销售。
-（3）被告人张宇供述和辩解，其是金辉公司的法人代表，其公司有环评资质，具有废塑料加工能力。其清楚国家对废塑料实行许可证管理，只有通过环评资质，具有废塑料加工能力的企业才能申领许可证，使用许可证进口的废塑料在进口后必须由许可证备案的利用单位加工使用，不得将许可证转让、租借、出售给他人使用。2013年下半年，丁煦熙打电话说他有个客户进口废塑料想用一下其公司的许可证，其同意了。其公司的许可证当时放在通关的代理公司处，丁煦熙通关时制作使用的用于报关的合同、发票等单据通过其公司当时留存在代理公司处盖有公章的空白A4纸打印并制作，其公司没有参与操作过程。
-（三）被告人原龙、被告单位坤格汇鑫公司于2013年12月17日，利用被告单位畅达公司的《固体废物进口许可证》，进口废塑料1票，重108.44吨。报关单号是425820131587021407，提单号是YMLUN650047312。
-（四）被告人原龙、被告单位坤格汇鑫公司于2013年12月19日，利用被告单位畅达公司的《固体废物进口许可证》，进口废塑料1票，重107.8吨。报关单号是425820131587021445，提单号是APLU802149918。
-被告单位畅达公司将该二票货物的增值税抵扣税款人民币共计166856.58元。
-上述事实，有经庭审质证、认证，本院予以确认的下列证据予以证实：
-1、书证
-（1）报关单及附随单据证实，2013年12月17日，被告单位坤格汇鑫公司以畅达公司为经营单位，利用畅达公司的固体废物进口许可证进口废PE塑料108440千克，报关单号425820131587021407，提单号YMLUN650047312；2013年12月19日，被告单位坤格汇鑫公司以畅达公司为经营单位，利用畅达公司固体废物进口许可证进口废PE塑料107800千克，报关单号是425820131587021445，提单号是APLU802149918。该二票货物均由青岛彤欣国际货运代理有限公司代理报关。
-（2）从被告人原龙邮箱提取的邮件信息，该信息为2014年1月16日丁煦熙发给原龙，邮件名称为“4票货物账单”证实，被告人丁煦熙通过邮件形式告知原龙，提单号为7312、9918、7483、7534四票货物的客户、提单号、到港日期、重量、关税、代理费、人工费、超期费、拖车费、打款额的明细，并告知原龙欠人民币19255.52元。经被告人原龙予以确认。
-（3）被告人丁煦熙、证人张某银行卡明细证实，2013年12月23日，被告人丁煦熙支付给张某人民币135000元，同日张某将人民币121043.31元打给青岛彤欣国际货运代理有限公司。
-（4）被告人原龙、丁煦熙，证人张某银行卡明细证实，2013年12月30日，原龙通过农业银行网银转给丁煦熙人民币145010元，同日丁煦熙支付给张某人民币120328.78元，同日张某将人民币120328.8元打给青岛彤欣国际货运代理有限公司。
-（5）青岛彤欣国际货运代理有限公司出具的该公司代理坤格汇鑫公司支付税款资金明细证实，提单号YMLUN650047312该票货物，该公司于2013年12月23日收到丁煦熙支付的人民币121043.31元，同日用于支付该票货物税款；提单号APLU802149918该票货物，该公司于2013年12月30日收到丁煦熙支付的人民币120328.78元，同日用于支付该票货物税款。
-（6）山东省烟台市芝罘区国家税务局出具的海关缴款书抵扣税款情况证实，烟台畅达工贸有限公司将该二票进口货物的增值税款抵扣税款共计人民币166856.58元。
-2、扣押笔录
-（1）扣押决定书、扣押笔录、扣押清单证实，2015年7月13日，烟台海关缉私分局对畅达公司记录的与本案相关的废塑料业务的财务凭证予以扣押。
-（2）扣押决定书、扣押笔录、扣押清单证实，2015年7月16日，烟台海关缉私分局对烟台畅达工贸有限公司人民币18万元予以扣押。
-3、证人史某证实，2013年下半年，丁煦熙让其帮忙联系许可证用于进口废塑料，其征得畅达公司负责人崔永卫的同意后，将畅达公司的许可证借给丁煦熙使用。
-4、被告人供述和辩解
-（1）被告人原龙供述和辩解，其是从事废塑料加工业务的个体户，其没有直接在国外进口过废塑料，只是从青岛坤格汇鑫公司的丁煦熙处购买过进口的废塑料，这些废塑料进口手续都是丁煦熙操作的。
-（2）被告人丁煦熙供述和辩解，其受被告人原龙委托，分别于2013年12月17日、19日，以坤格汇鑫公司的名义非法使用畅达公司的许可证，委托青岛彤欣国际货运代理有限公司向海关申报进口废塑料2票，分别为108.44吨、107.8吨。货物进口后其通过公司的车队拉运到原龙在莱州路旺的加工点，原龙对上述货物进行加工和销售。
-（3）被告人崔永卫供述和辩解，其是畅达公司法定代表人，其清楚国家对废塑料实行许可证管理，只有通过环评资质，具有废塑料加工能力的企业才能申领许可证，不得将许可证转让、租借、出售给他人使用。2013年，其曾电话联系史某，让他帮忙用一下公司的许可证额度。2013年底，史某打电话说有个客户进口废塑料想用一下其公司的许可证，其同意了。其公司将许可证借给史某使用，没有收取好处费，只是将公司的许可证额度使用了，另外因为他们给开具了增值税发票，其公司能享受税款抵扣好处。
-（五）被告人原龙、被告单位坤格汇鑫公司于2013年12月30日，利用德亨公司的《固体废物进口许可证》，进口废塑料2票，共计重333.68吨。报关单号分别是425820131587039063、425820131587039064，提单号分别是YMLUN650047483、YMLUN650047534。
-上述事实，有经庭审质证、认证，本院予以确认的下列证据予以证实：
-1、书证
-（1）报关单及附随单据证实，2013年12月30日，被告单位坤格汇鑫公司以德亨公司为经营单位，利用德亨公司的《固体废物进口许可证》进口废PE塑料二票，重量分别为192080千克、141600千克，报关单号分别是425820131587039063、425820131587039064，提单号分别是YMLUN650047483、YMLUN650047534。该二票货物由青岛彤欣国际货运代理有限公司代理报关。
-（2）从被告人原龙邮箱提取的邮件信息，该信息为2014年1月16日丁煦熙发给原龙，邮件名称为“4票货物账单”证实，被告人丁煦熙通过邮件形式告知原龙，提单号为7312、9918、7483、7534四票货物的客户、提单号、到港日期、重量、关税、代理费、人工费、超期费、拖车费、打款额的明细，并告知原龙欠人民币19255.52元。经被告人原龙予以确认。
-（3）中国农业银行银行卡取款凭条，被告人丁煦熙、证人张某银行卡明细证实，2014年1月7日，被告人原龙通过银行卡转账方式向丁煦熙银行卡转入人民币26万元。同日丁煦熙支付给张某人民币214404.03元。同日张某支付给青岛彤欣国际货运代理有限公司人民币214404.03元。
-（4）被告人原龙、丁煦熙，证人张某银行卡明细证实，2014年1月8日，被告人原龙通过农业银行网银转给丁煦熙人民币200000元，同日丁煦熙支付给张某人民币158057.11元，同日张某将人民币158057.11元支付给青岛彤欣国际货运代理有限公司。
-（5）青岛彤欣国际货运代理有限公司出具的该公司代理坤格汇鑫公司支付税款资金明细证实，提单号YMLUN650047483该票货物，该公司于2014年1月7日收到丁煦熙支付的人民币214404.03元，同日用于支付该票货物税款；提单号YMLUN650047534该票货物，该公司于2014年1月8日收到丁煦熙支付的人民币158057.11元，同日用于支付该票货物税款。
-2、证人证言
-（1）证人史某证实，其公司在2012年和2013年给德亨公司代理进口过废塑料，德亨公司的许可证放在其公司，其公司是按照德亨公司负责人尚某的要求使用许可证的。
-（2）证人尚某证实，其是德亨公司的实际负责人，公司在2010年就通过了环境评估，具有废塑料进口加工资质。2014年6月，德亨公司在工商部门被吊销营业执照了。其清楚国家对废塑料进口、加工的相关政策。其公司的许可证一直放在史某的青岛创宇进出口代理有限公司，其不知道公司许可证用于别人通关操作业务的事。关于其公司持上述二票报关单报关的增值税发票抵扣税款的事，其也不知情。
-3、被告人供述和辩解
-（1）被告人原龙供述和辩解，其是从事废塑料加工业务的个体户，其没有直接在国外进口过废塑料，只是从青岛坤格汇鑫公司的丁煦熙处购买过进口的废塑料，这些废塑料进口手续都是丁煦熙操作的。
-（2）被告人丁煦熙供述和辩解，其受被告人原龙委托，于2013年12月30日，以坤格汇鑫公司的名义非法使用德亨公司的许可证，委托青岛彤欣国际货运代理有限公司向海关申报进口废塑料2票，共计333.68吨。货物进口后其通过公司的车队拉运到原龙在莱州路旺的加工点，原龙对上述货物进行加工和销售。
-（六）被告人原龙、被告单位坤格汇鑫公司于2014年12月1日，利用被告单位琴宝公司的《固体废物进口许可证》，进口废塑料1票，重77.48吨，报关单号是425820141587394614，提单号是COSU4004408170。该票货物系原龙联系国外供货商驻国内代理人汪某订购的货物。
-</t>
   </si>
 </sst>
 </file>
@@ -524,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,86 +428,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,139 +463,86 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
       <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/WebAuto/data/intelligent_judgement.xlsx
+++ b/WebAuto/data/intelligent_judgement.xlsx
@@ -99,7 +99,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>6个月</t>
+    <t>8-14个月</t>
   </si>
 </sst>
 </file>
